--- a/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/Coding_SRI.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/Coding_SRI.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/R script/sri coding/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\R script\sri coding\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{534A4DE0-5ADC-4586-BD79-1300FA56E80D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78065EA6-BC7F-4115-B31D-2651B58C7751}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{E076B5D5-D199-4D8E-A2C0-E3EC9D7FADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Novices" sheetId="3" r:id="rId1"/>
     <sheet name="Rating Experts" sheetId="12" r:id="rId2"/>
+    <sheet name="Legende" sheetId="13" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="25">
+  <si>
+    <t>Script</t>
+  </si>
   <si>
     <t>Event</t>
+  </si>
+  <si>
+    <t>Disruption Factor</t>
+  </si>
+  <si>
+    <t>Confident Factor</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
   <si>
     <t>whispering</t>
@@ -37,16 +50,13 @@
     <t>heckling</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>chatting</t>
-  </si>
-  <si>
     <t>drawing</t>
   </si>
   <si>
     <t>snipping</t>
+  </si>
+  <si>
+    <t>looking  at phone</t>
   </si>
   <si>
     <t>head on table</t>
@@ -58,7 +68,13 @@
     <t>drumming</t>
   </si>
   <si>
+    <t>chatting</t>
+  </si>
+  <si>
     <t>02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chatting </t>
   </si>
   <si>
     <t>03</t>
@@ -82,28 +98,10 @@
     <t>nicht erkannt</t>
   </si>
   <si>
-    <t xml:space="preserve">chatting </t>
-  </si>
-  <si>
     <t>nicht erfragt</t>
   </si>
   <si>
-    <t>Confident Factor</t>
-  </si>
-  <si>
-    <t>Disruption Factor</t>
-  </si>
-  <si>
-    <t>Dispersion in school</t>
-  </si>
-  <si>
-    <t>Script</t>
-  </si>
-  <si>
     <t>Group</t>
-  </si>
-  <si>
-    <t>looking at phone</t>
   </si>
 </sst>
 </file>
@@ -166,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,12 +182,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,51 +498,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403ECED8-55F4-4FC6-AC8C-3350BC92FAB2}">
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="23.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -558,19 +544,16 @@
       <c r="E2" s="1">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>7</v>
@@ -578,19 +561,16 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -598,19 +578,16 @@
       <c r="E4" s="1">
         <v>9</v>
       </c>
-      <c r="F4" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>7</v>
@@ -618,19 +595,16 @@
       <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -638,19 +612,16 @@
       <c r="E6" s="1">
         <v>7</v>
       </c>
-      <c r="F6" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -658,19 +629,16 @@
       <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>9</v>
@@ -678,19 +646,16 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -698,19 +663,16 @@
       <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3">
         <v>10</v>
@@ -718,19 +680,16 @@
       <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
@@ -738,19 +697,16 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -758,19 +714,16 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
@@ -778,19 +731,16 @@
       <c r="E13" s="1">
         <v>8</v>
       </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>4</v>
@@ -798,19 +748,16 @@
       <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>102</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -818,19 +765,16 @@
       <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" s="6">
         <v>8</v>
@@ -838,19 +782,16 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -858,19 +799,16 @@
       <c r="E17" s="1">
         <v>-99</v>
       </c>
-      <c r="F17" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <v>6</v>
@@ -878,19 +816,16 @@
       <c r="E18" s="1">
         <v>7</v>
       </c>
-      <c r="F18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>102</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3">
         <v>10</v>
@@ -898,19 +833,16 @@
       <c r="E19" s="3">
         <v>8</v>
       </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -918,19 +850,16 @@
       <c r="E20" s="1">
         <v>9</v>
       </c>
-      <c r="F20" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>-100</v>
@@ -938,19 +867,16 @@
       <c r="E21" s="1">
         <v>-100</v>
       </c>
-      <c r="F21" s="1">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
         <v>6</v>
@@ -958,19 +884,16 @@
       <c r="E22" s="1">
         <v>9</v>
       </c>
-      <c r="F22" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
@@ -978,19 +901,16 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -998,39 +918,33 @@
       <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D25" s="1">
         <v>8</v>
       </c>
       <c r="E25" s="1">
         <v>9</v>
       </c>
-      <c r="F25" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1038,19 +952,16 @@
       <c r="E26" s="1">
         <v>10</v>
       </c>
-      <c r="F26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1058,19 +969,16 @@
       <c r="E27" s="1">
         <v>10</v>
       </c>
-      <c r="F27" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>103</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3">
         <v>8</v>
@@ -1078,19 +986,16 @@
       <c r="E28" s="3">
         <v>10</v>
       </c>
-      <c r="F28" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>7</v>
@@ -1098,19 +1003,16 @@
       <c r="E29" s="1">
         <v>7</v>
       </c>
-      <c r="F29" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
@@ -1118,19 +1020,16 @@
       <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1">
         <v>8</v>
@@ -1138,19 +1037,16 @@
       <c r="E31" s="1">
         <v>8</v>
       </c>
-      <c r="F31" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -1158,19 +1054,16 @@
       <c r="E32" s="1">
         <v>6</v>
       </c>
-      <c r="F32" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -1178,19 +1071,16 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="F33" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1198,19 +1088,16 @@
       <c r="E34" s="1">
         <v>5</v>
       </c>
-      <c r="F34" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>5</v>
@@ -1218,19 +1105,16 @@
       <c r="E35" s="1">
         <v>2</v>
       </c>
-      <c r="F35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1238,19 +1122,16 @@
       <c r="E36" s="1">
         <v>-99</v>
       </c>
-      <c r="F36" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>104</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3">
         <v>8</v>
@@ -1258,19 +1139,16 @@
       <c r="E37" s="3">
         <v>7</v>
       </c>
-      <c r="F37" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
@@ -1278,19 +1156,16 @@
       <c r="E38" s="1">
         <v>10</v>
       </c>
-      <c r="F38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D39" s="1">
         <v>10</v>
@@ -1298,19 +1173,16 @@
       <c r="E39" s="1">
         <v>8</v>
       </c>
-      <c r="F39" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -1318,19 +1190,16 @@
       <c r="E40" s="1">
         <v>10</v>
       </c>
-      <c r="F40" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1">
         <v>7</v>
@@ -1338,19 +1207,16 @@
       <c r="E41" s="1">
         <v>10</v>
       </c>
-      <c r="F41" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1">
         <v>8</v>
@@ -1358,19 +1224,16 @@
       <c r="E42" s="1">
         <v>3</v>
       </c>
-      <c r="F42" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
@@ -1378,19 +1241,16 @@
       <c r="E43" s="1">
         <v>10</v>
       </c>
-      <c r="F43" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>105</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1">
         <v>9</v>
@@ -1398,19 +1258,16 @@
       <c r="E44" s="1">
         <v>5</v>
       </c>
-      <c r="F44" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>105</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -1418,19 +1275,16 @@
       <c r="E45" s="1">
         <v>10</v>
       </c>
-      <c r="F45" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>105</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="D46" s="3">
         <v>10</v>
@@ -1438,19 +1292,16 @@
       <c r="E46" s="3">
         <v>2</v>
       </c>
-      <c r="F46" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1">
         <v>6</v>
@@ -1458,19 +1309,16 @@
       <c r="E47" s="1">
         <v>8</v>
       </c>
-      <c r="F47" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -1478,19 +1326,16 @@
       <c r="E48" s="1">
         <v>8</v>
       </c>
-      <c r="F48" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>106</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -1498,19 +1343,16 @@
       <c r="E49" s="1">
         <v>8</v>
       </c>
-      <c r="F49" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -1518,19 +1360,16 @@
       <c r="E50" s="1">
         <v>9</v>
       </c>
-      <c r="F50" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
@@ -1538,19 +1377,16 @@
       <c r="E51" s="1">
         <v>7</v>
       </c>
-      <c r="F51" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1">
         <v>9</v>
@@ -1558,19 +1394,16 @@
       <c r="E52" s="1">
         <v>8</v>
       </c>
-      <c r="F52" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>106</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -1578,19 +1411,16 @@
       <c r="E53" s="1">
         <v>8</v>
       </c>
-      <c r="F53" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -1598,19 +1428,16 @@
       <c r="E54" s="1">
         <v>9</v>
       </c>
-      <c r="F54" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>106</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D55" s="3">
         <v>7</v>
@@ -1618,19 +1445,16 @@
       <c r="E55" s="3">
         <v>6</v>
       </c>
-      <c r="F55" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
@@ -1638,19 +1462,16 @@
       <c r="E56" s="1">
         <v>3</v>
       </c>
-      <c r="F56" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -1658,19 +1479,16 @@
       <c r="E57" s="1">
         <v>8</v>
       </c>
-      <c r="F57" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1">
         <v>9</v>
@@ -1678,19 +1496,16 @@
       <c r="E58" s="1">
         <v>7</v>
       </c>
-      <c r="F58" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" s="1">
         <v>7</v>
@@ -1698,19 +1513,16 @@
       <c r="E59" s="1">
         <v>6</v>
       </c>
-      <c r="F59" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1">
         <v>8</v>
@@ -1718,19 +1530,16 @@
       <c r="E60" s="1">
         <v>7</v>
       </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1">
         <v>3</v>
@@ -1738,19 +1547,16 @@
       <c r="E61" s="1">
         <v>5</v>
       </c>
-      <c r="F61" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
@@ -1758,19 +1564,16 @@
       <c r="E62" s="1">
         <v>3</v>
       </c>
-      <c r="F62" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" s="1">
         <v>7</v>
@@ -1778,19 +1581,16 @@
       <c r="E63" s="1">
         <v>8</v>
       </c>
-      <c r="F63" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>107</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D64" s="3">
         <v>9</v>
@@ -1798,19 +1598,16 @@
       <c r="E64" s="3">
         <v>7</v>
       </c>
-      <c r="F64" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
@@ -1818,19 +1615,16 @@
       <c r="E65" s="1">
         <v>9</v>
       </c>
-      <c r="F65" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1">
         <v>9</v>
@@ -1838,19 +1632,16 @@
       <c r="E66" s="1">
         <v>4</v>
       </c>
-      <c r="F66" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1">
         <v>5</v>
@@ -1858,19 +1649,16 @@
       <c r="E67" s="1">
         <v>8</v>
       </c>
-      <c r="F67" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1">
         <v>9</v>
@@ -1878,19 +1666,16 @@
       <c r="E68" s="1">
         <v>7</v>
       </c>
-      <c r="F68" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D69" s="1">
         <v>8</v>
@@ -1898,19 +1683,16 @@
       <c r="E69" s="1">
         <v>7</v>
       </c>
-      <c r="F69" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1">
         <v>9</v>
@@ -1918,19 +1700,16 @@
       <c r="E70" s="1">
         <v>7</v>
       </c>
-      <c r="F70" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="1">
         <v>8</v>
@@ -1938,19 +1717,16 @@
       <c r="E71" s="1">
         <v>8</v>
       </c>
-      <c r="F71" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1">
         <v>6</v>
@@ -1958,19 +1734,16 @@
       <c r="E72" s="1">
         <v>9</v>
       </c>
-      <c r="F72" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>108</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D73" s="3">
         <v>9</v>
@@ -1978,19 +1751,16 @@
       <c r="E73" s="3">
         <v>7</v>
       </c>
-      <c r="F73" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74" s="1">
         <v>7</v>
@@ -1998,19 +1768,16 @@
       <c r="E74" s="1">
         <v>8</v>
       </c>
-      <c r="F74" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D75" s="1">
         <v>5</v>
@@ -2018,19 +1785,16 @@
       <c r="E75" s="1">
         <v>8</v>
       </c>
-      <c r="F75" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D76" s="1">
         <v>4</v>
@@ -2038,19 +1802,16 @@
       <c r="E76" s="1">
         <v>7</v>
       </c>
-      <c r="F76" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1">
         <v>8</v>
@@ -2058,19 +1819,16 @@
       <c r="E77" s="1">
         <v>7</v>
       </c>
-      <c r="F77" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="1">
         <v>8</v>
@@ -2078,19 +1836,16 @@
       <c r="E78" s="1">
         <v>9</v>
       </c>
-      <c r="F78" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1">
         <v>7</v>
@@ -2098,19 +1853,16 @@
       <c r="E79" s="1">
         <v>8</v>
       </c>
-      <c r="F79" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D80" s="1">
         <v>9</v>
@@ -2118,19 +1870,16 @@
       <c r="E80" s="1">
         <v>10</v>
       </c>
-      <c r="F80" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="1">
         <v>7</v>
@@ -2138,19 +1887,16 @@
       <c r="E81" s="1">
         <v>8</v>
       </c>
-      <c r="F81" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>109</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D82" s="3">
         <v>8</v>
@@ -2158,19 +1904,16 @@
       <c r="E82" s="3">
         <v>6</v>
       </c>
-      <c r="F82" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D83" s="1">
         <v>9</v>
@@ -2178,19 +1921,16 @@
       <c r="E83" s="1">
         <v>7</v>
       </c>
-      <c r="F83" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -2198,19 +1938,16 @@
       <c r="E84" s="1">
         <v>10</v>
       </c>
-      <c r="F84" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85" s="1">
         <v>6</v>
@@ -2218,19 +1955,16 @@
       <c r="E85" s="1">
         <v>5</v>
       </c>
-      <c r="F85" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1">
         <v>6</v>
@@ -2238,19 +1972,16 @@
       <c r="E86" s="1">
         <v>7</v>
       </c>
-      <c r="F86" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D87" s="1">
         <v>4</v>
@@ -2258,19 +1989,16 @@
       <c r="E87" s="1">
         <v>10</v>
       </c>
-      <c r="F87" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="1">
         <v>8</v>
@@ -2278,19 +2006,16 @@
       <c r="E88" s="1">
         <v>8</v>
       </c>
-      <c r="F88" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="1">
         <v>5</v>
@@ -2298,19 +2023,16 @@
       <c r="E89" s="1">
         <v>8</v>
       </c>
-      <c r="F89" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D90" s="1">
         <v>8</v>
@@ -2318,19 +2040,16 @@
       <c r="E90" s="1">
         <v>8</v>
       </c>
-      <c r="F90" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>110</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D91" s="3">
         <v>9</v>
@@ -2338,19 +2057,16 @@
       <c r="E91" s="3">
         <v>6</v>
       </c>
-      <c r="F91" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D92" s="1">
         <v>4</v>
@@ -2358,19 +2074,16 @@
       <c r="E92" s="1">
         <v>7</v>
       </c>
-      <c r="F92" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
@@ -2378,19 +2091,16 @@
       <c r="E93" s="1">
         <v>7</v>
       </c>
-      <c r="F93" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D94" s="1">
         <v>6</v>
@@ -2398,19 +2108,16 @@
       <c r="E94" s="1">
         <v>6</v>
       </c>
-      <c r="F94" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="1">
         <v>6</v>
@@ -2418,19 +2125,16 @@
       <c r="E95" s="1">
         <v>8</v>
       </c>
-      <c r="F95" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96" s="2">
         <v>7</v>
@@ -2438,39 +2142,33 @@
       <c r="E96" s="1">
         <v>8</v>
       </c>
-      <c r="F96" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D97" s="1">
         <v>6</v>
       </c>
       <c r="E97" s="1">
         <v>8</v>
       </c>
-      <c r="F97" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D98" s="1">
         <v>3</v>
@@ -2478,19 +2176,16 @@
       <c r="E98" s="1">
         <v>8</v>
       </c>
-      <c r="F98" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="1">
         <v>-99</v>
@@ -2498,19 +2193,16 @@
       <c r="E99" s="1">
         <v>-99</v>
       </c>
-      <c r="F99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>111</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D100" s="3">
         <v>5</v>
@@ -2518,19 +2210,16 @@
       <c r="E100" s="3">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1">
         <v>3</v>
@@ -2538,19 +2227,16 @@
       <c r="E101" s="1">
         <v>5</v>
       </c>
-      <c r="F101" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D102" s="1">
         <v>7</v>
@@ -2558,19 +2244,16 @@
       <c r="E102" s="1">
         <v>3</v>
       </c>
-      <c r="F102" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1">
         <v>5</v>
@@ -2578,19 +2261,16 @@
       <c r="E103" s="1">
         <v>9</v>
       </c>
-      <c r="F103" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1">
         <v>9</v>
@@ -2598,19 +2278,16 @@
       <c r="E104" s="1">
         <v>3</v>
       </c>
-      <c r="F104" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D105" s="1">
         <v>9</v>
@@ -2618,19 +2295,16 @@
       <c r="E105" s="1">
         <v>4</v>
       </c>
-      <c r="F105" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="1">
         <v>4</v>
@@ -2638,19 +2312,16 @@
       <c r="E106" s="1">
         <v>6</v>
       </c>
-      <c r="F106" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1">
         <v>7</v>
@@ -2658,19 +2329,16 @@
       <c r="E107" s="1">
         <v>6</v>
       </c>
-      <c r="F107" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D108" s="1">
         <v>3</v>
@@ -2678,19 +2346,16 @@
       <c r="E108" s="1">
         <v>8</v>
       </c>
-      <c r="F108" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>112</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D109" s="3">
         <v>9</v>
@@ -2698,19 +2363,16 @@
       <c r="E109" s="3">
         <v>6</v>
       </c>
-      <c r="F109" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="1">
         <v>-99</v>
@@ -2718,19 +2380,16 @@
       <c r="E110" s="1">
         <v>-99</v>
       </c>
-      <c r="F110" s="1">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D111" s="1">
         <v>4</v>
@@ -2738,19 +2397,16 @@
       <c r="E111" s="1">
         <v>10</v>
       </c>
-      <c r="F111" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1">
         <v>2</v>
@@ -2758,19 +2414,16 @@
       <c r="E112" s="1">
         <v>10</v>
       </c>
-      <c r="F112" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="1">
         <v>5</v>
@@ -2778,19 +2431,16 @@
       <c r="E113" s="1">
         <v>8</v>
       </c>
-      <c r="F113" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
@@ -2798,19 +2448,16 @@
       <c r="E114" s="1">
         <v>10</v>
       </c>
-      <c r="F114" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D115" s="1">
         <v>4</v>
@@ -2818,19 +2465,16 @@
       <c r="E115" s="1">
         <v>9</v>
       </c>
-      <c r="F115" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D116" s="1">
         <v>6</v>
@@ -2838,19 +2482,16 @@
       <c r="E116" s="1">
         <v>10</v>
       </c>
-      <c r="F116" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D117" s="1">
         <v>4</v>
@@ -2858,39 +2499,33 @@
       <c r="E117" s="1">
         <v>10</v>
       </c>
-      <c r="F117" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>113</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D118" s="3">
         <v>7</v>
       </c>
       <c r="E118" s="3">
         <v>8</v>
       </c>
-      <c r="F118" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D119" s="1">
         <v>8</v>
@@ -2898,19 +2533,16 @@
       <c r="E119" s="1">
         <v>10</v>
       </c>
-      <c r="F119" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="1">
         <v>2</v>
@@ -2918,19 +2550,16 @@
       <c r="E120" s="1">
         <v>9</v>
       </c>
-      <c r="F120" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="1">
         <v>8</v>
@@ -2938,19 +2567,16 @@
       <c r="E121" s="1">
         <v>9</v>
       </c>
-      <c r="F121" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
@@ -2958,19 +2584,16 @@
       <c r="E122" s="1">
         <v>10</v>
       </c>
-      <c r="F122" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -2978,19 +2601,16 @@
       <c r="E123" s="1">
         <v>9</v>
       </c>
-      <c r="F123" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D124" s="1">
         <v>7</v>
@@ -2998,19 +2618,16 @@
       <c r="E124" s="1">
         <v>9</v>
       </c>
-      <c r="F124" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" s="1">
         <v>8</v>
@@ -3018,19 +2635,16 @@
       <c r="E125" s="1">
         <v>10</v>
       </c>
-      <c r="F125" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D126" s="1">
         <v>9</v>
@@ -3038,19 +2652,16 @@
       <c r="E126" s="1">
         <v>6</v>
       </c>
-      <c r="F126" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>114</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D127" s="3">
         <v>9</v>
@@ -3058,19 +2669,16 @@
       <c r="E127" s="3">
         <v>9</v>
       </c>
-      <c r="F127" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D128" s="1">
         <v>-99</v>
@@ -3078,19 +2686,16 @@
       <c r="E128" s="1">
         <v>-99</v>
       </c>
-      <c r="F128" s="1">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D129" s="1">
         <v>3</v>
@@ -3098,19 +2703,16 @@
       <c r="E129" s="1">
         <v>8</v>
       </c>
-      <c r="F129" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D130" s="1">
         <v>8</v>
@@ -3118,19 +2720,16 @@
       <c r="E130" s="1">
         <v>6</v>
       </c>
-      <c r="F130" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D131" s="1">
         <v>7</v>
@@ -3138,19 +2737,16 @@
       <c r="E131" s="1">
         <v>6</v>
       </c>
-      <c r="F131" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="1">
         <v>5</v>
@@ -3158,19 +2754,16 @@
       <c r="E132" s="1">
         <v>8</v>
       </c>
-      <c r="F132" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D133" s="1">
         <v>10</v>
@@ -3178,19 +2771,16 @@
       <c r="E133" s="1">
         <v>1</v>
       </c>
-      <c r="F133" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>115</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1">
         <v>6</v>
@@ -3198,19 +2788,16 @@
       <c r="E134" s="1">
         <v>8</v>
       </c>
-      <c r="F134" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>115</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D135" s="1">
         <v>9</v>
@@ -3218,19 +2805,16 @@
       <c r="E135" s="1">
         <v>8</v>
       </c>
-      <c r="F135" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>115</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D136" s="3">
         <v>10</v>
@@ -3238,19 +2822,16 @@
       <c r="E136" s="3">
         <v>0</v>
       </c>
-      <c r="F136" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>116</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D137" s="1">
         <v>0</v>
@@ -3258,19 +2839,16 @@
       <c r="E137" s="1">
         <v>10</v>
       </c>
-      <c r="F137" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>116</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D138" s="1">
         <v>8</v>
@@ -3278,19 +2856,16 @@
       <c r="E138" s="1">
         <v>7</v>
       </c>
-      <c r="F138" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>116</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D139" s="1">
         <v>5</v>
@@ -3298,19 +2873,16 @@
       <c r="E139" s="1">
         <v>6</v>
       </c>
-      <c r="F139" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>116</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D140" s="1">
         <v>10</v>
@@ -3318,19 +2890,16 @@
       <c r="E140" s="1">
         <v>3</v>
       </c>
-      <c r="F140" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>116</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D141" s="1">
         <v>8</v>
@@ -3338,19 +2907,16 @@
       <c r="E141" s="1">
         <v>7</v>
       </c>
-      <c r="F141" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>116</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D142" s="1">
         <v>0</v>
@@ -3358,19 +2924,16 @@
       <c r="E142" s="1">
         <v>10</v>
       </c>
-      <c r="F142" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>116</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="1">
         <v>9</v>
@@ -3378,19 +2941,16 @@
       <c r="E143" s="1">
         <v>10</v>
       </c>
-      <c r="F143" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>116</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D144" s="1">
         <v>8</v>
@@ -3398,19 +2958,16 @@
       <c r="E144" s="1">
         <v>10</v>
       </c>
-      <c r="F144" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>116</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D145" s="3">
         <v>10</v>
@@ -3418,19 +2975,16 @@
       <c r="E145" s="3">
         <v>8</v>
       </c>
-      <c r="F145" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>117</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D146" s="1">
         <v>3</v>
@@ -3438,19 +2992,16 @@
       <c r="E146" s="1">
         <v>4</v>
       </c>
-      <c r="F146" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>117</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D147" s="1">
         <v>7</v>
@@ -3458,19 +3009,16 @@
       <c r="E147" s="1">
         <v>3</v>
       </c>
-      <c r="F147" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>117</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
@@ -3478,19 +3026,16 @@
       <c r="E148" s="1">
         <v>5</v>
       </c>
-      <c r="F148" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>117</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D149" s="1">
         <v>4</v>
@@ -3498,19 +3043,16 @@
       <c r="E149" s="1">
         <v>6</v>
       </c>
-      <c r="F149" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>117</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D150" s="1">
         <v>4</v>
@@ -3518,19 +3060,16 @@
       <c r="E150" s="1">
         <v>6</v>
       </c>
-      <c r="F150" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>117</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
@@ -3538,19 +3077,16 @@
       <c r="E151" s="1">
         <v>4</v>
       </c>
-      <c r="F151" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>117</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D152" s="1">
         <v>5</v>
@@ -3558,19 +3094,16 @@
       <c r="E152" s="1">
         <v>6</v>
       </c>
-      <c r="F152" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>117</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D153" s="1">
         <v>5</v>
@@ -3578,19 +3111,16 @@
       <c r="E153" s="1">
         <v>5</v>
       </c>
-      <c r="F153" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>117</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D154" s="3">
         <v>7</v>
@@ -3598,19 +3128,16 @@
       <c r="E154" s="3">
         <v>4</v>
       </c>
-      <c r="F154" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>118</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D155" s="1">
         <v>3</v>
@@ -3618,19 +3145,16 @@
       <c r="E155" s="1">
         <v>5</v>
       </c>
-      <c r="F155" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>118</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D156" s="1">
         <v>0</v>
@@ -3638,19 +3162,16 @@
       <c r="E156" s="1">
         <v>10</v>
       </c>
-      <c r="F156" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>118</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D157" s="1">
         <v>5</v>
@@ -3658,19 +3179,16 @@
       <c r="E157" s="1">
         <v>7</v>
       </c>
-      <c r="F157" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>118</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D158" s="1">
         <v>6</v>
@@ -3678,19 +3196,16 @@
       <c r="E158" s="1">
         <v>6</v>
       </c>
-      <c r="F158" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>118</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D159" s="1">
         <v>0</v>
@@ -3698,19 +3213,16 @@
       <c r="E159" s="1">
         <v>10</v>
       </c>
-      <c r="F159" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>118</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D160" s="1">
         <v>9</v>
@@ -3718,19 +3230,16 @@
       <c r="E160" s="1">
         <v>9</v>
       </c>
-      <c r="F160" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>118</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -3738,19 +3247,16 @@
       <c r="E161" s="1">
         <v>9</v>
       </c>
-      <c r="F161" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>118</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D162" s="1">
         <v>9</v>
@@ -3758,19 +3264,16 @@
       <c r="E162" s="1">
         <v>9</v>
       </c>
-      <c r="F162" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>118</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D163" s="3">
         <v>10</v>
@@ -3778,19 +3281,16 @@
       <c r="E163" s="3">
         <v>4</v>
       </c>
-      <c r="F163" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>119</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D164" s="1">
         <v>2</v>
@@ -3798,19 +3298,16 @@
       <c r="E164" s="1">
         <v>6</v>
       </c>
-      <c r="F164" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>119</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D165" s="1">
         <v>3</v>
@@ -3818,19 +3315,16 @@
       <c r="E165" s="1">
         <v>8</v>
       </c>
-      <c r="F165" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>119</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D166" s="1">
         <v>7</v>
@@ -3838,19 +3332,16 @@
       <c r="E166" s="1">
         <v>6</v>
       </c>
-      <c r="F166" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>119</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D167" s="1">
         <v>5</v>
@@ -3858,19 +3349,16 @@
       <c r="E167" s="1">
         <v>7</v>
       </c>
-      <c r="F167" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>119</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D168" s="1">
         <v>4</v>
@@ -3878,19 +3366,16 @@
       <c r="E168" s="1">
         <v>8</v>
       </c>
-      <c r="F168" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>119</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D169" s="1">
         <v>3</v>
@@ -3898,19 +3383,16 @@
       <c r="E169" s="1">
         <v>8</v>
       </c>
-      <c r="F169" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>119</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -3918,19 +3400,16 @@
       <c r="E170" s="1">
         <v>9</v>
       </c>
-      <c r="F170" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>119</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D171" s="1">
         <v>3</v>
@@ -3938,19 +3417,16 @@
       <c r="E171" s="1">
         <v>9</v>
       </c>
-      <c r="F171" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>119</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D172" s="3">
         <v>7</v>
@@ -3958,19 +3434,16 @@
       <c r="E172" s="3">
         <v>8</v>
       </c>
-      <c r="F172" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>120</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D173" s="1">
         <v>5</v>
@@ -3978,39 +3451,33 @@
       <c r="E173" s="1">
         <v>7</v>
       </c>
-      <c r="F173" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>120</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D174" s="1">
         <v>5</v>
       </c>
       <c r="E174" s="1">
         <v>8</v>
       </c>
-      <c r="F174" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>120</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D175" s="1">
         <v>3</v>
@@ -4018,19 +3485,16 @@
       <c r="E175" s="1">
         <v>9</v>
       </c>
-      <c r="F175" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>120</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D176" s="1">
         <v>6</v>
@@ -4038,19 +3502,16 @@
       <c r="E176" s="1">
         <v>7</v>
       </c>
-      <c r="F176" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>120</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D177" s="1">
         <v>6</v>
@@ -4058,19 +3519,16 @@
       <c r="E177" s="1">
         <v>-100</v>
       </c>
-      <c r="F177" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>120</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D178" s="1">
         <v>6</v>
@@ -4078,19 +3536,16 @@
       <c r="E178" s="1">
         <v>8</v>
       </c>
-      <c r="F178" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>120</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D179" s="1">
         <v>8</v>
@@ -4098,19 +3553,16 @@
       <c r="E179" s="1">
         <v>7</v>
       </c>
-      <c r="F179" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>120</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D180" s="1">
         <v>0</v>
@@ -4118,19 +3570,16 @@
       <c r="E180" s="1">
         <v>-99</v>
       </c>
-      <c r="F180" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>120</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D181" s="3">
         <v>9</v>
@@ -4138,19 +3587,16 @@
       <c r="E181" s="3">
         <v>7</v>
       </c>
-      <c r="F181" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>121</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="1">
         <v>6</v>
@@ -4158,19 +3604,16 @@
       <c r="E182" s="1">
         <v>10</v>
       </c>
-      <c r="F182" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>121</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D183" s="1">
         <v>3</v>
@@ -4178,19 +3621,16 @@
       <c r="E183" s="1">
         <v>9</v>
       </c>
-      <c r="F183" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>121</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D184" s="1">
         <v>2</v>
@@ -4198,19 +3638,16 @@
       <c r="E184" s="1">
         <v>10</v>
       </c>
-      <c r="F184" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>121</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D185" s="1">
         <v>-99</v>
@@ -4218,19 +3655,16 @@
       <c r="E185" s="1">
         <v>-99</v>
       </c>
-      <c r="F185" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>121</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
@@ -4238,19 +3672,16 @@
       <c r="E186" s="1">
         <v>8</v>
       </c>
-      <c r="F186" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>121</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D187" s="1">
         <v>-99</v>
@@ -4258,19 +3689,16 @@
       <c r="E187" s="1">
         <v>-99</v>
       </c>
-      <c r="F187" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>121</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D188" s="1">
         <v>8</v>
@@ -4278,19 +3706,16 @@
       <c r="E188" s="1">
         <v>3</v>
       </c>
-      <c r="F188" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>121</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D189" s="1">
         <v>5</v>
@@ -4298,39 +3723,33 @@
       <c r="E189" s="1">
         <v>9</v>
       </c>
-      <c r="F189" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>121</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C190" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D190" s="3">
         <v>8</v>
       </c>
       <c r="E190" s="3">
         <v>9</v>
       </c>
-      <c r="F190" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>122</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D191" s="1">
         <v>5</v>
@@ -4338,19 +3757,16 @@
       <c r="E191" s="1">
         <v>7</v>
       </c>
-      <c r="F191" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>122</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D192" s="1">
         <v>3</v>
@@ -4358,19 +3774,16 @@
       <c r="E192" s="1">
         <v>8</v>
       </c>
-      <c r="F192" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>122</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="1">
         <v>9</v>
@@ -4378,19 +3791,16 @@
       <c r="E193" s="1">
         <v>7</v>
       </c>
-      <c r="F193" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>122</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D194" s="1">
         <v>2</v>
@@ -4398,19 +3808,16 @@
       <c r="E194" s="1">
         <v>9</v>
       </c>
-      <c r="F194" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>122</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D195" s="1">
         <v>5</v>
@@ -4418,19 +3825,16 @@
       <c r="E195" s="1">
         <v>6</v>
       </c>
-      <c r="F195" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>122</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D196" s="1">
         <v>9</v>
@@ -4438,19 +3842,16 @@
       <c r="E196" s="1">
         <v>9</v>
       </c>
-      <c r="F196" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>122</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D197" s="1">
         <v>7</v>
@@ -4458,19 +3859,16 @@
       <c r="E197" s="1">
         <v>7</v>
       </c>
-      <c r="F197" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>122</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D198" s="1">
         <v>10</v>
@@ -4478,19 +3876,16 @@
       <c r="E198" s="1">
         <v>4</v>
       </c>
-      <c r="F198" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>122</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D199" s="3">
         <v>10</v>
@@ -4498,19 +3893,16 @@
       <c r="E199" s="3">
         <v>5</v>
       </c>
-      <c r="F199" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>123</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D200" s="1">
         <v>5</v>
@@ -4518,19 +3910,16 @@
       <c r="E200" s="1">
         <v>8</v>
       </c>
-      <c r="F200" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>123</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D201" s="1">
         <v>1</v>
@@ -4538,19 +3927,16 @@
       <c r="E201" s="1">
         <v>10</v>
       </c>
-      <c r="F201" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>123</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D202" s="1">
         <v>9</v>
@@ -4558,19 +3944,16 @@
       <c r="E202" s="1">
         <v>8</v>
       </c>
-      <c r="F202" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>123</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D203" s="1">
         <v>10</v>
@@ -4578,19 +3961,16 @@
       <c r="E203" s="1">
         <v>7</v>
       </c>
-      <c r="F203" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>123</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D204" s="1">
         <v>10</v>
@@ -4598,19 +3978,16 @@
       <c r="E204" s="1">
         <v>8</v>
       </c>
-      <c r="F204" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>123</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D205" s="1">
         <v>4</v>
@@ -4618,19 +3995,16 @@
       <c r="E205" s="1">
         <v>9</v>
       </c>
-      <c r="F205" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>123</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D206" s="1">
         <v>5</v>
@@ -4638,19 +4012,16 @@
       <c r="E206" s="1">
         <v>9</v>
       </c>
-      <c r="F206" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>123</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D207" s="1">
         <v>8</v>
@@ -4658,19 +4029,16 @@
       <c r="E207" s="1">
         <v>8</v>
       </c>
-      <c r="F207" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>123</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D208" s="3">
         <v>8</v>
@@ -4678,19 +4046,16 @@
       <c r="E208" s="3">
         <v>8</v>
       </c>
-      <c r="F208" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>124</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D209" s="1">
         <v>2</v>
@@ -4698,19 +4063,16 @@
       <c r="E209" s="1">
         <v>9</v>
       </c>
-      <c r="F209" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>124</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D210" s="1">
         <v>6</v>
@@ -4718,19 +4080,16 @@
       <c r="E210" s="1">
         <v>8</v>
       </c>
-      <c r="F210" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>124</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D211" s="1">
         <v>2</v>
@@ -4738,19 +4097,16 @@
       <c r="E211" s="1">
         <v>8</v>
       </c>
-      <c r="F211" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>124</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D212" s="1">
         <v>9</v>
@@ -4758,19 +4114,16 @@
       <c r="E212" s="1">
         <v>5</v>
       </c>
-      <c r="F212" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>124</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D213" s="1">
         <v>8</v>
@@ -4778,19 +4131,16 @@
       <c r="E213" s="1">
         <v>10</v>
       </c>
-      <c r="F213" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>124</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D214" s="1">
         <v>8</v>
@@ -4798,19 +4148,16 @@
       <c r="E214" s="1">
         <v>9</v>
       </c>
-      <c r="F214" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>124</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="1">
         <v>7</v>
@@ -4818,19 +4165,16 @@
       <c r="E215" s="1">
         <v>10</v>
       </c>
-      <c r="F215" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>124</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D216" s="1">
         <v>3</v>
@@ -4838,19 +4182,16 @@
       <c r="E216" s="1">
         <v>7</v>
       </c>
-      <c r="F216" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>124</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D217" s="3">
         <v>10</v>
@@ -4858,123 +4199,158 @@
       <c r="E217" s="3">
         <v>8</v>
       </c>
-      <c r="F217" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>125</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D218" s="1">
+        <v>4</v>
+      </c>
+      <c r="E218" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>125</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D219" s="1">
+        <v>7</v>
+      </c>
+      <c r="E219" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>125</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D220" s="1">
+        <v>2</v>
+      </c>
+      <c r="E220" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>125</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D221" s="1">
+        <v>5</v>
+      </c>
+      <c r="E221" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>125</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="D222" s="1">
+        <v>4</v>
+      </c>
+      <c r="E222" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>125</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D223" s="1">
+        <v>5</v>
+      </c>
+      <c r="E223" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>125</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" s="1">
         <v>3</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E224" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>125</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="D225" s="1">
+        <v>2</v>
+      </c>
+      <c r="E225" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>125</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G227" s="1">
-        <v>-99</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G228" s="1">
-        <v>-100</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D226" s="3">
+        <v>6</v>
+      </c>
+      <c r="E226" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4986,51 +4362,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D7183-98EA-4827-B19F-C9663A3867CB}">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="3" width="23.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>7</v>
@@ -5038,19 +4408,16 @@
       <c r="E2" s="1">
         <v>6</v>
       </c>
-      <c r="F2" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>201</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -5058,19 +4425,16 @@
       <c r="E3" s="1">
         <v>9</v>
       </c>
-      <c r="F3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>201</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -5078,19 +4442,16 @@
       <c r="E4" s="1">
         <v>9</v>
       </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -5098,19 +4459,16 @@
       <c r="E5" s="1">
         <v>9</v>
       </c>
-      <c r="F5" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -5118,19 +4476,16 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>201</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -5138,39 +4493,33 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>201</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>-99</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>-99</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>201</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -5178,19 +4527,16 @@
       <c r="E9" s="1">
         <v>9</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3">
         <v>8</v>
@@ -5198,19 +4544,16 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -5218,19 +4561,16 @@
       <c r="E11" s="1">
         <v>7</v>
       </c>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -5238,19 +4578,16 @@
       <c r="E12" s="1">
         <v>9</v>
       </c>
-      <c r="F12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>202</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -5258,19 +4595,16 @@
       <c r="E13" s="1">
         <v>8</v>
       </c>
-      <c r="F13" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
@@ -5278,19 +4612,16 @@
       <c r="E14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -5298,19 +4629,16 @@
       <c r="E15" s="1">
         <v>9</v>
       </c>
-      <c r="F15" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16" s="6">
         <v>8</v>
@@ -5318,19 +4646,16 @@
       <c r="E16" s="1">
         <v>9</v>
       </c>
-      <c r="F16" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>202</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>-99</v>
@@ -5338,19 +4663,16 @@
       <c r="E17" s="1">
         <v>-99</v>
       </c>
-      <c r="F17" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>202</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <v>9</v>
@@ -5358,39 +4680,33 @@
       <c r="E18" s="1">
         <v>8</v>
       </c>
-      <c r="F18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>202</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8">
-        <v>9</v>
-      </c>
-      <c r="F19" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>203</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1">
         <v>10</v>
@@ -5398,19 +4714,16 @@
       <c r="E20" s="1">
         <v>10</v>
       </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>203</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -5418,19 +4731,16 @@
       <c r="E21" s="1">
         <v>8</v>
       </c>
-      <c r="F21" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>203</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
         <v>10</v>
@@ -5438,19 +4748,16 @@
       <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="F22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>203</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1">
         <v>8</v>
@@ -5458,19 +4765,16 @@
       <c r="E23" s="1">
         <v>10</v>
       </c>
-      <c r="F23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>203</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
@@ -5478,19 +4782,16 @@
       <c r="E24" s="1">
         <v>10</v>
       </c>
-      <c r="F24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>203</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D25" s="1">
         <v>-99</v>
@@ -5498,19 +4799,16 @@
       <c r="E25" s="1">
         <v>-99</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>203</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -5518,19 +4816,16 @@
       <c r="E26" s="1">
         <v>10</v>
       </c>
-      <c r="F26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>203</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
@@ -5538,19 +4833,16 @@
       <c r="E27" s="1">
         <v>10</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>203</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3">
         <v>9</v>
@@ -5558,19 +4850,16 @@
       <c r="E28" s="3">
         <v>10</v>
       </c>
-      <c r="F28" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>204</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -5578,39 +4867,33 @@
       <c r="E29" s="1">
         <v>10</v>
       </c>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>204</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D30" s="1">
         <v>7</v>
       </c>
       <c r="E30" s="1">
         <v>7</v>
       </c>
-      <c r="F30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>204</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -5618,19 +4901,16 @@
       <c r="E31" s="1">
         <v>10</v>
       </c>
-      <c r="F31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>204</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1">
         <v>10</v>
@@ -5638,19 +4918,16 @@
       <c r="E32" s="1">
         <v>9</v>
       </c>
-      <c r="F32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>204</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -5658,19 +4935,16 @@
       <c r="E33" s="1">
         <v>10</v>
       </c>
-      <c r="F33" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>204</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -5678,19 +4952,16 @@
       <c r="E34" s="1">
         <v>10</v>
       </c>
-      <c r="F34" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>204</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -5698,19 +4969,16 @@
       <c r="E35" s="1">
         <v>10</v>
       </c>
-      <c r="F35" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>204</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -5718,19 +4986,16 @@
       <c r="E36" s="1">
         <v>10</v>
       </c>
-      <c r="F36" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>204</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3">
         <v>10</v>
@@ -5738,19 +5003,16 @@
       <c r="E37" s="3">
         <v>8</v>
       </c>
-      <c r="F37" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>205</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
         <v>8</v>
@@ -5758,19 +5020,16 @@
       <c r="E38" s="1">
         <v>9</v>
       </c>
-      <c r="F38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>205</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D39" s="1">
         <v>8</v>
@@ -5778,19 +5037,16 @@
       <c r="E39" s="1">
         <v>7</v>
       </c>
-      <c r="F39" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>205</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -5798,19 +5054,16 @@
       <c r="E40" s="1">
         <v>-100</v>
       </c>
-      <c r="F40" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>205</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
@@ -5818,19 +5071,16 @@
       <c r="E41" s="1">
         <v>9</v>
       </c>
-      <c r="F41" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>205</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1">
         <v>6</v>
@@ -5838,19 +5088,16 @@
       <c r="E42" s="1">
         <v>9</v>
       </c>
-      <c r="F42" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>205</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -5858,19 +5105,16 @@
       <c r="E43" s="1">
         <v>9</v>
       </c>
-      <c r="F43" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>205</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1">
         <v>9</v>
@@ -5878,19 +5122,16 @@
       <c r="E44" s="1">
         <v>3</v>
       </c>
-      <c r="F44" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>205</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
         <v>7</v>
@@ -5898,39 +5139,33 @@
       <c r="E45" s="1">
         <v>6</v>
       </c>
-      <c r="F45" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>205</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D46" s="3">
         <v>5</v>
       </c>
       <c r="E46" s="3">
         <v>9</v>
       </c>
-      <c r="F46" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>206</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
@@ -5938,19 +5173,16 @@
       <c r="E47" s="1">
         <v>10</v>
       </c>
-      <c r="F47" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>206</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -5958,19 +5190,16 @@
       <c r="E48" s="1">
         <v>10</v>
       </c>
-      <c r="F48" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1">
         <v>2</v>
@@ -5978,19 +5207,16 @@
       <c r="E49" s="1">
         <v>10</v>
       </c>
-      <c r="F49" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>206</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -5998,19 +5224,16 @@
       <c r="E50" s="1">
         <v>10</v>
       </c>
-      <c r="F50" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>206</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
         <v>4</v>
@@ -6018,19 +5241,16 @@
       <c r="E51" s="1">
         <v>10</v>
       </c>
-      <c r="F51" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>206</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1">
         <v>5</v>
@@ -6038,19 +5258,16 @@
       <c r="E52" s="1">
         <v>9</v>
       </c>
-      <c r="F52" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>206</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -6058,19 +5275,16 @@
       <c r="E53" s="1">
         <v>9</v>
       </c>
-      <c r="F53" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>206</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1">
         <v>2</v>
@@ -6078,39 +5292,33 @@
       <c r="E54" s="1">
         <v>10</v>
       </c>
-      <c r="F54" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
+    </row>
+    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>206</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="8">
+      <c r="B55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="3">
         <v>1</v>
       </c>
-      <c r="E55" s="8">
-        <v>10</v>
-      </c>
-      <c r="F55" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>207</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
@@ -6118,19 +5326,16 @@
       <c r="E56" s="1">
         <v>8</v>
       </c>
-      <c r="F56" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>207</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -6138,19 +5343,16 @@
       <c r="E57" s="1">
         <v>10</v>
       </c>
-      <c r="F57" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>207</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1">
         <v>10</v>
@@ -6158,19 +5360,16 @@
       <c r="E58" s="1">
         <v>10</v>
       </c>
-      <c r="F58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>207</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" s="1">
         <v>5</v>
@@ -6178,19 +5377,16 @@
       <c r="E59" s="1">
         <v>5</v>
       </c>
-      <c r="F59" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>207</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1">
         <v>5</v>
@@ -6198,19 +5394,16 @@
       <c r="E60" s="1">
         <v>8</v>
       </c>
-      <c r="F60" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>207</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1">
         <v>7</v>
@@ -6218,19 +5411,16 @@
       <c r="E61" s="1">
         <v>6</v>
       </c>
-      <c r="F61" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>207</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1">
         <v>6</v>
@@ -6238,19 +5428,16 @@
       <c r="E62" s="1">
         <v>5</v>
       </c>
-      <c r="F62" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>207</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -6258,19 +5445,16 @@
       <c r="E63" s="1">
         <v>9</v>
       </c>
-      <c r="F63" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>207</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D64" s="3">
         <v>7</v>
@@ -6278,19 +5462,16 @@
       <c r="E64" s="3">
         <v>7</v>
       </c>
-      <c r="F64" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>208</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
@@ -6298,19 +5479,16 @@
       <c r="E65" s="1">
         <v>9</v>
       </c>
-      <c r="F65" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>208</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1">
         <v>9</v>
@@ -6318,19 +5496,16 @@
       <c r="E66" s="1">
         <v>7</v>
       </c>
-      <c r="F66" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>208</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
@@ -6338,19 +5513,16 @@
       <c r="E67" s="1">
         <v>10</v>
       </c>
-      <c r="F67" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>208</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1">
         <v>8</v>
@@ -6358,19 +5530,16 @@
       <c r="E68" s="1">
         <v>4</v>
       </c>
-      <c r="F68" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>208</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D69" s="1">
         <v>4</v>
@@ -6378,19 +5547,16 @@
       <c r="E69" s="1">
         <v>8</v>
       </c>
-      <c r="F69" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>208</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -6398,19 +5564,16 @@
       <c r="E70" s="1">
         <v>10</v>
       </c>
-      <c r="F70" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>208</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -6418,19 +5581,16 @@
       <c r="E71" s="1">
         <v>8</v>
       </c>
-      <c r="F71" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>208</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -6438,19 +5598,16 @@
       <c r="E72" s="1">
         <v>10</v>
       </c>
-      <c r="F72" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>208</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D73" s="3">
         <v>8</v>
@@ -6458,19 +5615,16 @@
       <c r="E73" s="3">
         <v>9</v>
       </c>
-      <c r="F73" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>209</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
@@ -6478,19 +5632,16 @@
       <c r="E74" s="1">
         <v>9</v>
       </c>
-      <c r="F74" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>209</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D75" s="1">
         <v>4</v>
@@ -6498,19 +5649,16 @@
       <c r="E75" s="1">
         <v>9</v>
       </c>
-      <c r="F75" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>209</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -6518,19 +5666,16 @@
       <c r="E76" s="1">
         <v>9</v>
       </c>
-      <c r="F76" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>209</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1">
         <v>4</v>
@@ -6538,19 +5683,16 @@
       <c r="E77" s="1">
         <v>9</v>
       </c>
-      <c r="F77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>209</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -6558,19 +5700,16 @@
       <c r="E78" s="1">
         <v>9</v>
       </c>
-      <c r="F78" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>209</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1">
         <v>2</v>
@@ -6578,19 +5717,16 @@
       <c r="E79" s="1">
         <v>9</v>
       </c>
-      <c r="F79" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>209</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D80" s="1">
         <v>5</v>
@@ -6598,19 +5734,16 @@
       <c r="E80" s="1">
         <v>9</v>
       </c>
-      <c r="F80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>209</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="1">
         <v>4</v>
@@ -6618,19 +5751,16 @@
       <c r="E81" s="1">
         <v>9</v>
       </c>
-      <c r="F81" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>209</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D82" s="3">
         <v>3</v>
@@ -6638,19 +5768,16 @@
       <c r="E82" s="3">
         <v>9</v>
       </c>
-      <c r="F82" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>210</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D83" s="1">
         <v>7</v>
@@ -6658,19 +5785,16 @@
       <c r="E83" s="1">
         <v>6</v>
       </c>
-      <c r="F83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>210</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" s="1">
         <v>6</v>
@@ -6678,19 +5802,16 @@
       <c r="E84" s="1">
         <v>4</v>
       </c>
-      <c r="F84" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>210</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85" s="1">
         <v>2</v>
@@ -6698,19 +5819,16 @@
       <c r="E85" s="1">
         <v>9</v>
       </c>
-      <c r="F85" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>210</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1">
         <v>4</v>
@@ -6718,19 +5836,16 @@
       <c r="E86" s="1">
         <v>8</v>
       </c>
-      <c r="F86" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>210</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D87" s="1">
         <v>2</v>
@@ -6738,19 +5853,16 @@
       <c r="E87" s="1">
         <v>-99</v>
       </c>
-      <c r="F87" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>210</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -6758,19 +5870,16 @@
       <c r="E88" s="1">
         <v>10</v>
       </c>
-      <c r="F88" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>210</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="1">
         <v>8</v>
@@ -6778,19 +5887,16 @@
       <c r="E89" s="1">
         <v>8</v>
       </c>
-      <c r="F89" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>210</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
@@ -6798,19 +5904,16 @@
       <c r="E90" s="1">
         <v>8</v>
       </c>
-      <c r="F90" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>210</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D91" s="3">
         <v>9</v>
@@ -6818,19 +5921,16 @@
       <c r="E91" s="3">
         <v>7</v>
       </c>
-      <c r="F91" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>211</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
@@ -6838,19 +5938,16 @@
       <c r="E92" s="1">
         <v>10</v>
       </c>
-      <c r="F92" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>211</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1">
         <v>2</v>
@@ -6858,19 +5955,16 @@
       <c r="E93" s="1">
         <v>10</v>
       </c>
-      <c r="F93" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>211</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D94" s="1">
         <v>7</v>
@@ -6878,19 +5972,16 @@
       <c r="E94" s="1">
         <v>10</v>
       </c>
-      <c r="F94" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>211</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
@@ -6898,19 +5989,16 @@
       <c r="E95" s="1">
         <v>10</v>
       </c>
-      <c r="F95" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>211</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96" s="1">
         <v>2</v>
@@ -6918,19 +6006,16 @@
       <c r="E96" s="1">
         <v>10</v>
       </c>
-      <c r="F96" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>211</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -6938,19 +6023,16 @@
       <c r="E97" s="1">
         <v>10</v>
       </c>
-      <c r="F97" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>211</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -6958,19 +6040,16 @@
       <c r="E98" s="1">
         <v>10</v>
       </c>
-      <c r="F98" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>211</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -6978,19 +6057,16 @@
       <c r="E99" s="1">
         <v>10</v>
       </c>
-      <c r="F99" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>211</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D100" s="3">
         <v>2</v>
@@ -6998,19 +6074,16 @@
       <c r="E100" s="3">
         <v>9</v>
       </c>
-      <c r="F100" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>212</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1">
         <v>4</v>
@@ -7018,19 +6091,16 @@
       <c r="E101" s="1">
         <v>10</v>
       </c>
-      <c r="F101" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>212</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D102" s="1">
         <v>2</v>
@@ -7038,19 +6108,16 @@
       <c r="E102" s="1">
         <v>9</v>
       </c>
-      <c r="F102" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>212</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -7058,19 +6125,16 @@
       <c r="E103" s="1">
         <v>10</v>
       </c>
-      <c r="F103" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>212</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1">
         <v>2</v>
@@ -7078,19 +6142,16 @@
       <c r="E104" s="1">
         <v>9</v>
       </c>
-      <c r="F104" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>212</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D105" s="1">
         <v>6</v>
@@ -7098,19 +6159,16 @@
       <c r="E105" s="1">
         <v>7</v>
       </c>
-      <c r="F105" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>212</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
@@ -7118,19 +6176,16 @@
       <c r="E106" s="1">
         <v>8</v>
       </c>
-      <c r="F106" s="1">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>212</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1">
         <v>7</v>
@@ -7138,19 +6193,16 @@
       <c r="E107" s="1">
         <v>9</v>
       </c>
-      <c r="F107" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>212</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D108" s="1">
         <v>-99</v>
@@ -7158,19 +6210,16 @@
       <c r="E108" s="1">
         <v>-99</v>
       </c>
-      <c r="F108" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>212</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D109" s="3">
         <v>2</v>
@@ -7178,19 +6227,16 @@
       <c r="E109" s="3">
         <v>9</v>
       </c>
-      <c r="F109" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>213</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
@@ -7198,19 +6244,16 @@
       <c r="E110" s="1">
         <v>8</v>
       </c>
-      <c r="F110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>213</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D111" s="1">
         <v>5</v>
@@ -7218,19 +6261,16 @@
       <c r="E111" s="1">
         <v>8</v>
       </c>
-      <c r="F111" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>213</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1">
         <v>8</v>
@@ -7238,19 +6278,16 @@
       <c r="E112" s="1">
         <v>8</v>
       </c>
-      <c r="F112" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>213</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D113" s="1">
         <v>8</v>
@@ -7258,19 +6295,16 @@
       <c r="E113" s="1">
         <v>7</v>
       </c>
-      <c r="F113" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>213</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D114" s="1">
         <v>8</v>
@@ -7278,19 +6312,16 @@
       <c r="E114" s="1">
         <v>8</v>
       </c>
-      <c r="F114" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>213</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
@@ -7298,19 +6329,16 @@
       <c r="E115" s="1">
         <v>5</v>
       </c>
-      <c r="F115" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>213</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D116" s="1">
         <v>9</v>
@@ -7318,19 +6346,16 @@
       <c r="E116" s="1">
         <v>2</v>
       </c>
-      <c r="F116" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>213</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D117" s="1">
         <v>5</v>
@@ -7338,19 +6363,16 @@
       <c r="E117" s="1">
         <v>3</v>
       </c>
-      <c r="F117" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>213</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="D118" s="3">
         <v>9</v>
@@ -7358,19 +6380,16 @@
       <c r="E118" s="3">
         <v>2</v>
       </c>
-      <c r="F118" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>214</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D119" s="1">
         <v>5</v>
@@ -7378,19 +6397,16 @@
       <c r="E119" s="1">
         <v>10</v>
       </c>
-      <c r="F119" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>214</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D120" s="1">
         <v>-99</v>
@@ -7398,19 +6414,16 @@
       <c r="E120" s="1">
         <v>-99</v>
       </c>
-      <c r="F120" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>214</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D121" s="1">
         <v>-99</v>
@@ -7418,19 +6431,16 @@
       <c r="E121" s="1">
         <v>-99</v>
       </c>
-      <c r="F121" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>214</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D122" s="1">
         <v>6</v>
@@ -7438,19 +6448,16 @@
       <c r="E122" s="1">
         <v>10</v>
       </c>
-      <c r="F122" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>214</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1">
         <v>5</v>
@@ -7458,19 +6465,16 @@
       <c r="E123" s="1">
         <v>8</v>
       </c>
-      <c r="F123" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>214</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D124" s="1">
         <v>7</v>
@@ -7478,19 +6482,16 @@
       <c r="E124" s="1">
         <v>8</v>
       </c>
-      <c r="F124" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>214</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" s="1">
         <v>10</v>
@@ -7498,19 +6499,16 @@
       <c r="E125" s="1">
         <v>9</v>
       </c>
-      <c r="F125" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>214</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D126" s="1">
         <v>10</v>
@@ -7518,19 +6516,16 @@
       <c r="E126" s="1">
         <v>2</v>
       </c>
-      <c r="F126" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>214</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>4</v>
+      <c r="B127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D127" s="3">
         <v>10</v>
@@ -7538,19 +6533,16 @@
       <c r="E127" s="3">
         <v>7</v>
       </c>
-      <c r="F127" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>215</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D128" s="1">
         <v>8</v>
@@ -7558,19 +6550,16 @@
       <c r="E128" s="1">
         <v>10</v>
       </c>
-      <c r="F128" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>215</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D129" s="1">
         <v>-99</v>
@@ -7578,19 +6567,16 @@
       <c r="E129" s="1">
         <v>-99</v>
       </c>
-      <c r="F129" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>215</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D130" s="1">
         <v>5</v>
@@ -7598,19 +6584,16 @@
       <c r="E130" s="1">
         <v>9</v>
       </c>
-      <c r="F130" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>215</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D131" s="1">
         <v>3</v>
@@ -7618,19 +6601,16 @@
       <c r="E131" s="1">
         <v>10</v>
       </c>
-      <c r="F131" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>215</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D132" s="1">
         <v>2</v>
@@ -7638,19 +6618,16 @@
       <c r="E132" s="1">
         <v>10</v>
       </c>
-      <c r="F132" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>215</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D133" s="1">
         <v>9</v>
@@ -7658,19 +6635,16 @@
       <c r="E133" s="1">
         <v>10</v>
       </c>
-      <c r="F133" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>215</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -7678,19 +6652,16 @@
       <c r="E134" s="1">
         <v>10</v>
       </c>
-      <c r="F134" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>215</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D135" s="1">
         <v>7</v>
@@ -7698,19 +6669,16 @@
       <c r="E135" s="1">
         <v>10</v>
       </c>
-      <c r="F135" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>215</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D136" s="3">
         <v>9</v>
@@ -7718,19 +6686,16 @@
       <c r="E136" s="3">
         <v>10</v>
       </c>
-      <c r="F136" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>216</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D137" s="1">
         <v>2</v>
@@ -7738,19 +6703,16 @@
       <c r="E137" s="1">
         <v>10</v>
       </c>
-      <c r="F137" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>216</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D138" s="1">
         <v>5</v>
@@ -7758,19 +6720,16 @@
       <c r="E138" s="1">
         <v>10</v>
       </c>
-      <c r="F138" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>216</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -7778,19 +6737,16 @@
       <c r="E139" s="1">
         <v>10</v>
       </c>
-      <c r="F139" s="1">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>216</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D140" s="1">
         <v>6</v>
@@ -7798,19 +6754,16 @@
       <c r="E140" s="1">
         <v>8</v>
       </c>
-      <c r="F140" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>216</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D141" s="1">
         <v>6</v>
@@ -7818,19 +6771,16 @@
       <c r="E141" s="1">
         <v>10</v>
       </c>
-      <c r="F141" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>216</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -7838,19 +6788,16 @@
       <c r="E142" s="1">
         <v>10</v>
       </c>
-      <c r="F142" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>216</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D143" s="1">
         <v>5</v>
@@ -7858,19 +6805,16 @@
       <c r="E143" s="1">
         <v>10</v>
       </c>
-      <c r="F143" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>216</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D144" s="1">
         <v>3</v>
@@ -7878,44 +6822,22 @@
       <c r="E144" s="1">
         <v>10</v>
       </c>
-      <c r="F144" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>216</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D145" s="3">
         <v>2</v>
       </c>
       <c r="E145" s="3">
         <v>10</v>
-      </c>
-      <c r="F145" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G146" s="1">
-        <v>-99</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G147" s="1">
-        <v>-100</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7923,4 +6845,35 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C720AFE-1C4C-4865-B184-FC3630399157}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>-99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>-100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>